--- a/data/publications/orcid/export_to_manual/Uniwersytet_Opolski_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Uniwersytet_Opolski_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1886 +436,2044 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Katarzyna Anna Błońska</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7210-777X</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Dieta wegetariańska i jej związki z cechami osobowości u kobiet</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2021-12-30</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Katarzyna_Anna_Błońska_1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Romuald Derbis</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5145-7922</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Środowiskowe i osobowościowe uwarunkowania satysfakcji z pracy</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2019-01-31</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Problemy higieny i epidemiologii</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Romuald_Derbis_6</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Romuald Derbis</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5145-7922</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Poczucie jakości życia i samoocena pacjentów w trakcie terapii uzależnienia od alkoholu</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2018-12</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne, Psychological Journal</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Romuald_Derbis_7</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Romuald Derbis</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5145-7922</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Motywacja osiągnięć, ciemna triada i zaangażowanie w pracę jako korelaty zachowań kontrproduktywnych</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne, Psychological  Journal</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Romuald_Derbis_13</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Joanna Dymecka</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7092-3017</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Fear of COVID-19 as a buffer in the relationship between perceived stress and life satisfaction in the Polish population at the beginning of the global pandemic</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2021-02-09</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Health Psychology Report</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Joanna_Dymecka_3</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Joanna Dymecka</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7092-3017</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Selected psychometric aspects of the Polish version of the Liverpool Self-efficacy Scale</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2020-12-29</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Current Issues in Personality Psychology</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Joanna_Dymecka_4</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>34</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Joanna Dymecka</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7092-3017</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Niepełnosprawność a jakość życia pacjentów ze stwardnieniem rozsianym. Mediacyjna rola zapotrzebowania na wsparcie społeczne [Disability and the quality of life of patients with multiple sclerosis. Mediating role of the need for social support]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2019-12-01</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Człowiek-Niepełnosprawność-Społeczeństwo</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Joanna_Dymecka_5</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>35</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Joanna Dymecka</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7092-3017</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Poczucie koherencji a style radzenia sobie ze stresem rodziców dzieci z chorobą nowotworową</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2018-12-18</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Psychoonkologia</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Joanna_Dymecka_6</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>37</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Joanna Dymecka</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-7092-3017</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Skala Niesprawności Neurologicznej Szpitala Guy jako istotne narzędzie do oceny objawów występujących u osób z SM</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017-02-11</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Niepełnosprawność - Zagadnienia Problemy Rozwiązania</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Joanna_Dymecka_8</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>58</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Rafał Janusz Gerymski</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4847-1429</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Do intimacy, passion and commitment shape the sexual satisfaction of seniors? Results of the exploratory study,Czy intymność, namiętność i zobowiązanie kształtują satysfakcję seksualną seniorów? Wyniki badania eksploracyjnego</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Seksuologia Polska</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Rafał_Janusz_Gerymski_15</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>60</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Rafał Janusz Gerymski</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4847-1429</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Związek agresji, wybranych czynników osobowościowych oraz preferencji kategorii filmów pornograficznych</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Rafał_Janusz_Gerymski_17</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>61</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Rafał Janusz Gerymski</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4847-1429</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Wsparcie i radzenie sobie ze stresem jako moderatory związku stresu i jakości życia osób transpłciowych</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2018-09</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Rafał_Janusz_Gerymski_18</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>62</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Rafał Janusz Gerymski</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4847-1429</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Are personality traits a good predictors of the type of watched pornography? Analysis of the relationship between personality traits and the preference of a chosen pornographic categories</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Rafał_Janusz_Gerymski_19</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>63</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Rafał Janusz Gerymski</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4847-1429</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Czy cechy osobowości są dobrymi predyktorami typu oglądanej pornografii? Analiza związku między cechami osobowości a preferencjami wybranych kategorii pornograficznych</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Rafał_Janusz_Gerymski_20</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>64</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Rafał Janusz Gerymski</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4847-1429</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Influence of the sex reassignment on the subjective well-being of transgender men – results of the pilot study and discussion about future research</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Rafał_Janusz_Gerymski_21</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>65</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Rafał Janusz Gerymski</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-4847-1429</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Wpływ korekty płci na poczucie jakości życia mężczyzn transpłciowych – wyniki badania pilotażowego oraz przyczynek do dalszych badań</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Rafał_Janusz_Gerymski_22</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>69</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Arkadiusz Mirosław Jasiński</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5200-1174</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Does Work Have to Make Sense? Work Engagement in a Group of Micro-Entrepreneurs. The Mediating Role of Coherence at Work</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>2021-01-21</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Canadian Journal of Career Development</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Arkadiusz_Mirosław_Jasiński_4</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>72</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Arkadiusz Mirosław Jasiński</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5200-1174</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Środowiskowe i osobowościowe uwarunkowania satysfakcji z pracy</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2019-03-01</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Problemy Higieny i Epidemiologii/Problems of Hygiene and Epidemiology</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Arkadiusz_Mirosław_Jasiński_7</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>73</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Arkadiusz Mirosław Jasiński</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5200-1174</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Model Doświadczania Globalizacji (MDG) i wstępna wersja Skali Doświadczania Globalizacji (SDG)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2018-12-03</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne/Psychological Journal</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Arkadiusz_Mirosław_Jasiński_8</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>85</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Alicja Kalus</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-7397-3151</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Psychologiczne korelaty oceny rodziny u małżonków niepodejmujących ról rodzicielskich w okresie wczesnej dorosłości</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne. Psychological Journal</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Alicja_Kalus_11</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>118</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Anna Machnik-Czerwik</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0582-248X</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Fear of COVID-19 as a buffer in the relationship between perceived stress and life satisfaction in the Polish population at the beginning of the global pandemic</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Health Psychology Report</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Anna_Machnik-Czerwik_1</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>120</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Barbara Maria Mróz</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0414-0468</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Poczucie jakości życia a rozbieżność w systemie „ja” – różnice między studentami kierunków społecznych i technicznych</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Barbara_Maria_Mróz_2</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>121</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Barbara Maria Mróz</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0414-0468</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Sense of quality of life and self-discrepancy —differences between social science and technology students</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Przegląd Psychologiczny</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Barbara_Maria_Mróz_3</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>123</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Barbara Maria Mróz</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0414-0468</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Art of Acting and Management Style. Results of psychological research on personality and hierarchy of values of outstanding Polish actors and managers in the area of services</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>2018-12</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Edukacja Ekonomistów i Menedżerów. Problemy. Innowacje. Projekty</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Barbara_Maria_Mróz_5</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>124</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Barbara Maria Mróz</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0414-0468</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Poczucie jakości życia i hierarchia wartości – różnice między studentami kierunków społecznych i technicznych</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>2018-12</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne – Psychological Journal</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Barbara_Maria_Mróz_6</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>125</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Barbara Maria Mróz</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-0414-0468</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Longitudinal research into purpose in life in outstanding Polish actors</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Barbara_Maria_Mróz_7</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>128</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Grzegorz Pajestka</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5520-0347</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Model Doświadczania Globalizacji (MDG) i wstępna wersja Skali Doświadczania Globalizacji (SDG).</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Czasopismo psychologiczne. Psychological Journal.</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Grzegorz_Pajestka_3</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>129</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Grzegorz Pajestka</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5520-0347</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t xml:space="preserve">Test R-W jako trafne narzędzie wykorzystywane w badaniach przesiewowych z zakresu psychologii pracy. </t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Czasopismo psychologiczne. Psychological Journal.</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Grzegorz_Pajestka_4</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>130</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Grzegorz Pajestka</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5520-0347</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Związek indukowanych emocji z ruminacjami i orientacją pozytywną.</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Czasopismo psychologiczne. Psychological Journal.</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Grzegorz_Pajestka_5</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>131</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Grzegorz Pajestka</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-5520-0347</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>INTRASEXUAL COMPETITION AMONG HUMANS: PROSOCIAL TOWARDS THE OPPOSITE SEX AND PROSELF TOWARDS THE SAME SEX?</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Grzegorz_Pajestka_6</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>154</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Katarzyna Skałacka</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2188-7547</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Czy intymność, namiętność i zobowiązanie kształtują satysfakcję seksualną seniorów? Wyniki badania eksploracyjnego</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Seksuologia Polska</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Katarzyna_Skałacka_14</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>155</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Katarzyna Skałacka</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2188-7547</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>Test R-W jako trafne narzędzie w badaniach przesiewowych z zakresu psychologii pracy</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne – Psychological Journal</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Katarzyna_Skałacka_15</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>156</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Katarzyna Skałacka</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2188-7547</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>Wpływ zaangażowania w opiekę nad wnukami na poziom poczucia jakości życia dziadków</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne – Psychological Journal</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Katarzyna_Skałacka_16</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>161</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Radosław Bartosz Walczak</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6787-7673</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>Perspectivas psicológicas seleccionadas sobre trabajo digno y satisfacción laboral</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Relaciones Laborales y Derecho del Empleo</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Radosław_Bartosz_Walczak_4</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>164</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Radosław Bartosz Walczak</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6787-7673</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>Zaspokojenie podstawowych potrzeb psychologicznych jako mediator między podstawowym samowartościowaniem a zadowoleniem zawodowym</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Czasopismo Psychologiczne - Psychological Journal</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Radosław_Bartosz_Walczak_7</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>165</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Radosław Bartosz Walczak</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6787-7673</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>Cross-border virtual teams, as seen from applied psychology &amp; applied economy perspective. A Case study of a cross- cultural teaching program</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>2018-12</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Pogranicze. Polish Borderlands Studies</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Radosław_Bartosz_Walczak_8</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>167</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Radosław Bartosz Walczak</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6787-7673</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>Gry fabularne jako sposób zwiększenia kontroli nad rzeczywistością. Poczucie umiejscowienia kontroli oraz emocjonalność graczy w porównaniu do młodzieży niegrającej.</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Hommo ludens</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Radosław_Bartosz_Walczak_10</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>168</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Radosław Bartosz Walczak</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6787-7673</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>Podstawowe samowartościowanie – walidacja polskiej wersji skali do pomiaru Core Self-Evaluations</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Czasopismo psychologiczne – psychological Journal</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Radosław_Bartosz_Walczak_11</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>179</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Przemysław Zdybek</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6291-3495</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>How Does the Type of Migration Influence the Social Functioning of Polish Migrants in the Culture of the Host Country?</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>unrecovered</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Building Barriers and Bridges</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Przemysław_Zdybek_11</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>180</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t xml:space="preserve">:  Factors Associated with Providers’ Work Engagement and Burnout in Homeless Services: A Cross-national Study </t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>American Journal of Community Psychology</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_1</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>181</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Home as a Base for a Well-Lived Life: Comparing the Capabilities of Homeless Service Users in Housing First and the Staircase of Transition in Europe</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Housing, Theory and Society</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_2</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>182</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>Selected personality dimensions and occupational burnout in the group of professional and volunteer firefighters</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Medycyna Pracy</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_3</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>183</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>Depression and workaholism in undergraduates: Examining gender as a moderator</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2021-01-19</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Journal of American College Health</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_4</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>184</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>Association between the hierarchy of physical education goals and preferred profiles of physical education classes among students attending middle and high schools</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Journal of Physical Education and Sport</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_5</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>185</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>Relation between current alcohol consumption and attitude towards alcohol use among students</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Alcoholism and Drug Addiction</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_6</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>186</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>Factors Associated with Providers’ Work Engagement and Burnout in Homeless Services: A Cross‐national Study</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>2020-11-02</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_7</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>187</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>Preferences of Physical Education Profiles Among Polish Adolescents</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2020-09-17</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Frontiers in Public Health</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_8</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>188</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t xml:space="preserve">Unrealistic Optimism in the Time of Coronavirus Pandemic: May It Help to Kill, If So—Whom: Disease or the Person? </t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>2020-05</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Journal of Clinical Medicine</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_9</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>189</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>The mediating effect of self-efficacy on the relationship between health locus of control and life satisfaction: A moderator role of movement disability</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Disability and Health Journal</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_10</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>190</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>The Relationship of Number of Sexual Partners with Personality Traits, Age, Gender and Sexual Identification</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>2020-04-14</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Psychology &amp; Sexuality</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_11</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>192</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Barbara Zmaczyńska-Witek</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5472-2576</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>Emotional intelligence and marital communication among married couples at different stages of marriage</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Hellenic Journal of Psychology</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Barbara_Zmaczyńska-Witek_13</t>
         </is>
